--- a/medicine/Psychotrope/Copper_ale/Copper_ale.xlsx
+++ b/medicine/Psychotrope/Copper_ale/Copper_ale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La copper ale (lit. "ale cuivrée") est un style de ale connu notamment pour sa couleur cuivrée[1].
-Certaines variétés de copper ale sont produite pour avoir une saveur amère[2], de manière analogue à une bière amère. La bière brassée avec du malt foncé peut contribuer à une bière de couleur cuivrée[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La copper ale (lit. "ale cuivrée") est un style de ale connu notamment pour sa couleur cuivrée.
+Certaines variétés de copper ale sont produite pour avoir une saveur amère, de manière analogue à une bière amère. La bière brassée avec du malt foncé peut contribuer à une bière de couleur cuivrée.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Producteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Copper Ale est la bière phare de la Brasserie Otter Creek , une brasserie artisanale située à Middlebury (Vermont)[4]. Il est également produit par d'autres sociétés américaines, comme la Companie de la bière Boulder à Boulder (Colorado)[1],[5].
-En Australie, la marque de copper ale  James Squire produit la  Constable Copper Ale[6]. La production s'est arrêté en 2017[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Copper Ale est la bière phare de la Brasserie Otter Creek , une brasserie artisanale située à Middlebury (Vermont). Il est également produit par d'autres sociétés américaines, comme la Companie de la bière Boulder à Boulder (Colorado),.
+En Australie, la marque de copper ale  James Squire produit la  Constable Copper Ale. La production s'est arrêté en 2017.
 La brasserie Alosta Brewing Company à Covina (Californie) a également produit une copper ale, en collaboration avec le groupe +LĪVE+, pour célébrer la certification platine de leur ablum Throwing Copper.
 Style de bière
 Bière en fût
